--- a/data/pca/factorExposure/factorExposure_2018-06-06.xlsx
+++ b/data/pca/factorExposure/factorExposure_2018-06-06.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
@@ -32,6 +32,9 @@
   </si>
   <si>
     <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -698,13 +701,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -723,79 +726,91 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>-0.01729238341627808</v>
+        <v>0.02213312652081448</v>
       </c>
       <c r="C2">
-        <v>-0.0299805158954022</v>
+        <v>-0.01713552390895096</v>
       </c>
       <c r="D2">
-        <v>-0.00581718999619539</v>
+        <v>0.02395054108931252</v>
       </c>
       <c r="E2">
-        <v>0.01927734242543132</v>
+        <v>-0.01451562766136998</v>
       </c>
       <c r="F2">
-        <v>-0.10980664681098</v>
+        <v>0.01272816286404729</v>
       </c>
       <c r="G2">
-        <v>0.06727397753506519</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>0.04843591528269791</v>
+      </c>
+      <c r="H2">
+        <v>0.04528988414626505</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B3">
-        <v>-0.09471051565208473</v>
+        <v>0.08970976173970356</v>
       </c>
       <c r="C3">
-        <v>-0.02398074209124857</v>
+        <v>0.01691399116576196</v>
       </c>
       <c r="D3">
-        <v>-0.09130920407749367</v>
+        <v>0.04512639602891094</v>
       </c>
       <c r="E3">
-        <v>0.05511121087121282</v>
+        <v>-0.005857120569327795</v>
       </c>
       <c r="F3">
-        <v>-0.3872470685671662</v>
+        <v>0.01338842170379607</v>
       </c>
       <c r="G3">
-        <v>0.1859586024022154</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>0.1826627126219356</v>
+      </c>
+      <c r="H3">
+        <v>0.1656010854041031</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>-0.04123760948496015</v>
+        <v>0.04986154908753004</v>
       </c>
       <c r="C4">
-        <v>-0.002424590710093286</v>
+        <v>-0.001638402777936971</v>
       </c>
       <c r="D4">
-        <v>0.02533434107886256</v>
+        <v>0.05055408528318048</v>
       </c>
       <c r="E4">
-        <v>-0.04115876373857145</v>
+        <v>0.02146306250122089</v>
       </c>
       <c r="F4">
-        <v>-0.07688354082330683</v>
+        <v>0.055293947690115</v>
       </c>
       <c r="G4">
-        <v>0.05044857897933307</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>0.02996743848109603</v>
+      </c>
+      <c r="H4">
+        <v>0.05185186993448548</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -815,217 +830,247 @@
       <c r="G5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>-0.02555551441887575</v>
+        <v>0.03090877612428745</v>
       </c>
       <c r="C6">
-        <v>-0.006348743543051971</v>
+        <v>0.0006117349274308172</v>
       </c>
       <c r="D6">
-        <v>-0.0001518668398441628</v>
+        <v>0.05555331453508791</v>
       </c>
       <c r="E6">
-        <v>-0.02431066375967987</v>
+        <v>0.005471467404950393</v>
       </c>
       <c r="F6">
-        <v>-0.02571660064229979</v>
+        <v>0.03268888388591143</v>
       </c>
       <c r="G6">
-        <v>-0.005911813541527634</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>0.008436914390047456</v>
+      </c>
+      <c r="H6">
+        <v>0.06083151110241686</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>-0.0195671601528744</v>
+        <v>0.0242021138283821</v>
       </c>
       <c r="C7">
-        <v>-0.008343855411972441</v>
+        <v>-0.0006374216334562199</v>
       </c>
       <c r="D7">
-        <v>-0.0108560448964139</v>
+        <v>0.02963073489018405</v>
       </c>
       <c r="E7">
-        <v>-0.02609597818330442</v>
+        <v>0.04325548575788045</v>
       </c>
       <c r="F7">
-        <v>-0.04856538920892302</v>
+        <v>0.007703414006056752</v>
       </c>
       <c r="G7">
-        <v>0.06376888079193765</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>0.02178575892764109</v>
+      </c>
+      <c r="H7">
+        <v>0.0377086480566319</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>-0.01697021859623097</v>
+        <v>0.007551493284839865</v>
       </c>
       <c r="C8">
-        <v>-0.01282045690756168</v>
+        <v>0.00257970192921481</v>
       </c>
       <c r="D8">
-        <v>0.00366890899999836</v>
+        <v>0.01091042879736622</v>
       </c>
       <c r="E8">
-        <v>-0.03386987107299178</v>
+        <v>0.007395904861256889</v>
       </c>
       <c r="F8">
-        <v>-0.09879245339929517</v>
+        <v>0.0235607707117339</v>
       </c>
       <c r="G8">
-        <v>0.05467448777207978</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>0.04134210979577143</v>
+      </c>
+      <c r="H8">
+        <v>0.03819591110897026</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>-0.03278066296113789</v>
+        <v>0.03943788520053738</v>
       </c>
       <c r="C9">
-        <v>-0.009234552953356769</v>
+        <v>0.001524334403226815</v>
       </c>
       <c r="D9">
-        <v>0.01127683766628668</v>
+        <v>0.0380351696585785</v>
       </c>
       <c r="E9">
-        <v>-0.03564746996964625</v>
+        <v>0.01028292896060386</v>
       </c>
       <c r="F9">
-        <v>-0.08647625150350037</v>
+        <v>0.0318513370498006</v>
       </c>
       <c r="G9">
-        <v>0.06041390797032398</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>0.04092534876884205</v>
+      </c>
+      <c r="H9">
+        <v>0.05150710756797043</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>-0.03941974448860739</v>
+        <v>0.09371063232580154</v>
       </c>
       <c r="C10">
-        <v>0.07171623850476624</v>
+        <v>0.007816455722240784</v>
       </c>
       <c r="D10">
-        <v>0.03966677964305134</v>
+        <v>-0.1714770846684109</v>
       </c>
       <c r="E10">
-        <v>0.1359954175944005</v>
+        <v>-0.002944441135110748</v>
       </c>
       <c r="F10">
-        <v>-0.04639090992744661</v>
+        <v>-0.0326201197067204</v>
       </c>
       <c r="G10">
-        <v>-0.003381319413038967</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>0.03572830478520019</v>
+      </c>
+      <c r="H10">
+        <v>0.00921281946217402</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>-0.031409138182439</v>
+        <v>0.02581151329461979</v>
       </c>
       <c r="C11">
-        <v>-0.02600271834480928</v>
+        <v>0.01225936082564822</v>
       </c>
       <c r="D11">
-        <v>-0.006366723486445329</v>
+        <v>0.04475194532682684</v>
       </c>
       <c r="E11">
-        <v>-0.02868123960867471</v>
+        <v>-0.0008790297661027918</v>
       </c>
       <c r="F11">
-        <v>-0.04807729292052142</v>
+        <v>0.01586277453851448</v>
       </c>
       <c r="G11">
-        <v>0.02515108949998043</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>0.02427780233374727</v>
+      </c>
+      <c r="H11">
+        <v>0.04720620481826487</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>-0.03947141044427491</v>
+        <v>0.03040546577412579</v>
       </c>
       <c r="C12">
-        <v>-0.02490860977084165</v>
+        <v>0.008981753821187211</v>
       </c>
       <c r="D12">
-        <v>0.002274239158266497</v>
+        <v>0.04354932978350221</v>
       </c>
       <c r="E12">
-        <v>-0.03797327857575257</v>
+        <v>0.008650365135171555</v>
       </c>
       <c r="F12">
-        <v>-0.03248444407979285</v>
+        <v>0.01805289400686479</v>
       </c>
       <c r="G12">
-        <v>0.00922603071640278</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+        <v>0.005730805895974262</v>
+      </c>
+      <c r="H12">
+        <v>0.02038501046084679</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>-0.01420783148132906</v>
+        <v>0.03074290493121241</v>
       </c>
       <c r="C13">
-        <v>-0.02137796036038178</v>
+        <v>-0.01211417523332364</v>
       </c>
       <c r="D13">
-        <v>0.008071810944877109</v>
+        <v>0.01438790300397206</v>
       </c>
       <c r="E13">
-        <v>0.006267758374385479</v>
+        <v>-0.009610225521361959</v>
       </c>
       <c r="F13">
-        <v>-0.07666179112201778</v>
+        <v>0.03034013684654359</v>
       </c>
       <c r="G13">
-        <v>0.0439570844235985</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+        <v>0.05826001289214763</v>
+      </c>
+      <c r="H13">
+        <v>0.07212577071670614</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>-0.01475264324108964</v>
+        <v>0.01924256386952817</v>
       </c>
       <c r="C14">
-        <v>-0.002152579710159534</v>
+        <v>1.214826384360637e-06</v>
       </c>
       <c r="D14">
-        <v>0.01108642424955585</v>
+        <v>0.008736217374785483</v>
       </c>
       <c r="E14">
-        <v>-0.02906080844816303</v>
+        <v>0.01444747912839362</v>
       </c>
       <c r="F14">
-        <v>-0.05400297133525954</v>
+        <v>0.02044748769799393</v>
       </c>
       <c r="G14">
-        <v>0.05970296037007939</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+        <v>0.03757463141052789</v>
+      </c>
+      <c r="H14">
+        <v>0.008980574408763485</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -1045,33 +1090,39 @@
       <c r="G15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:7">
+      <c r="H15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>-0.02530657072101022</v>
+        <v>0.02598933573005181</v>
       </c>
       <c r="C16">
-        <v>-0.02602476517878545</v>
+        <v>0.01168283800964331</v>
       </c>
       <c r="D16">
-        <v>-0.002183889779356889</v>
+        <v>0.0371877455494596</v>
       </c>
       <c r="E16">
-        <v>-0.02439207335369912</v>
+        <v>0.002739707640464315</v>
       </c>
       <c r="F16">
-        <v>-0.05600572739702506</v>
+        <v>0.01977486427296655</v>
       </c>
       <c r="G16">
-        <v>0.02837955962235261</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+        <v>0.02047293141190744</v>
+      </c>
+      <c r="H16">
+        <v>0.03543086842753928</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1091,10 +1142,13 @@
       <c r="G17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1114,79 +1168,91 @@
       <c r="G18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B19">
-        <v>-0.03471326424959774</v>
+        <v>0.03827432531918575</v>
       </c>
       <c r="C19">
-        <v>-0.03200519852370753</v>
+        <v>0.001976260016153116</v>
       </c>
       <c r="D19">
-        <v>-0.01084860440644345</v>
+        <v>0.02975460918111375</v>
       </c>
       <c r="E19">
-        <v>-0.02724280194706176</v>
+        <v>0.006232510423184824</v>
       </c>
       <c r="F19">
-        <v>-0.1072371218062497</v>
+        <v>0.03316906879509713</v>
       </c>
       <c r="G19">
-        <v>0.05179542774986094</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
+        <v>0.05908154469191273</v>
+      </c>
+      <c r="H19">
+        <v>0.06979493720978291</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>0.002473683841674844</v>
+        <v>0.0140194089009997</v>
       </c>
       <c r="C20">
-        <v>-0.005232255951814586</v>
+        <v>-0.00414893813365961</v>
       </c>
       <c r="D20">
-        <v>0.004143473632613939</v>
+        <v>0.01829107567687712</v>
       </c>
       <c r="E20">
-        <v>-0.02123864804161038</v>
+        <v>0.006360749098783654</v>
       </c>
       <c r="F20">
-        <v>-0.081479192370102</v>
+        <v>0.02266231635555023</v>
       </c>
       <c r="G20">
-        <v>0.07891162040053412</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
+        <v>0.05116753985971497</v>
+      </c>
+      <c r="H20">
+        <v>0.02754516906003902</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>0.002737303559182726</v>
+        <v>0.01785621935638358</v>
       </c>
       <c r="C21">
-        <v>0.01583120913034355</v>
+        <v>-0.006354771140599687</v>
       </c>
       <c r="D21">
-        <v>-0.01577636151096846</v>
+        <v>0.01711739667886018</v>
       </c>
       <c r="E21">
-        <v>-0.03384191184946221</v>
+        <v>0.01894150156209189</v>
       </c>
       <c r="F21">
-        <v>-0.04334565321674189</v>
+        <v>0.0164176286715695</v>
       </c>
       <c r="G21">
-        <v>0.02094312287307206</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
+        <v>0.04609101368691611</v>
+      </c>
+      <c r="H21">
+        <v>0.04381614940807259</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1206,10 +1272,13 @@
       <c r="G22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:7">
+      <c r="H22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1229,263 +1298,299 @@
       <c r="G23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:7">
+      <c r="H23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>-0.02774844794183164</v>
+        <v>0.02252436979303332</v>
       </c>
       <c r="C24">
-        <v>-0.02402364429152598</v>
+        <v>0.00607154379402565</v>
       </c>
       <c r="D24">
-        <v>0.006163595692632066</v>
+        <v>0.03892266593108992</v>
       </c>
       <c r="E24">
-        <v>-0.01059004497471561</v>
+        <v>0.001070659173028019</v>
       </c>
       <c r="F24">
-        <v>-0.04634807609634185</v>
+        <v>0.01459975758223125</v>
       </c>
       <c r="G24">
-        <v>0.02614288261567255</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
+        <v>0.01608893082936436</v>
+      </c>
+      <c r="H24">
+        <v>0.04454890435923878</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>-0.02848293643258478</v>
+        <v>0.03403518677845084</v>
       </c>
       <c r="C25">
-        <v>-0.01808350913932051</v>
+        <v>0.004175419753551857</v>
       </c>
       <c r="D25">
-        <v>-0.007216328070249715</v>
+        <v>0.03864663258839113</v>
       </c>
       <c r="E25">
-        <v>-0.02963725061694491</v>
+        <v>0.004735537504793874</v>
       </c>
       <c r="F25">
-        <v>-0.05328934628502009</v>
+        <v>0.02277078238671043</v>
       </c>
       <c r="G25">
-        <v>0.01454336161332232</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
+        <v>0.01921875834126557</v>
+      </c>
+      <c r="H25">
+        <v>0.04293563365159356</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>-0.02090940607116983</v>
+        <v>0.01969895149793267</v>
       </c>
       <c r="C26">
-        <v>-0.01709461897418434</v>
+        <v>-0.01750298226507432</v>
       </c>
       <c r="D26">
-        <v>-0.0242315683999397</v>
+        <v>0.00658329416847945</v>
       </c>
       <c r="E26">
-        <v>-0.006077758519118833</v>
+        <v>-0.0001468678607874802</v>
       </c>
       <c r="F26">
-        <v>-0.07183995234818678</v>
+        <v>0.005523251244649176</v>
       </c>
       <c r="G26">
-        <v>0.04592408122844464</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
+        <v>0.03236985468620333</v>
+      </c>
+      <c r="H26">
+        <v>0.02315669367589952</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B27">
-        <v>-0.05691036168234236</v>
+        <v>0.02397400876773677</v>
       </c>
       <c r="C27">
-        <v>-0.02190129356576629</v>
+        <v>0.008953347753350454</v>
       </c>
       <c r="D27">
-        <v>0.03396823158672813</v>
+        <v>0.01322723714461903</v>
       </c>
       <c r="E27">
-        <v>-0.03292578844559776</v>
+        <v>0.004398448375399512</v>
       </c>
       <c r="F27">
-        <v>-0.05184634606031091</v>
+        <v>0.0151851419200597</v>
       </c>
       <c r="G27">
-        <v>0.04629460288920663</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
+        <v>0.01132218892629261</v>
+      </c>
+      <c r="H27">
+        <v>-0.002635312690305241</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>-0.06231861325304915</v>
+        <v>0.1372224396641672</v>
       </c>
       <c r="C28">
-        <v>0.09720766354759074</v>
+        <v>-2.523113314631028e-05</v>
       </c>
       <c r="D28">
-        <v>0.06501926299725833</v>
+        <v>-0.2321054173494253</v>
       </c>
       <c r="E28">
-        <v>0.1696369086877225</v>
+        <v>0.003564870998249936</v>
       </c>
       <c r="F28">
-        <v>-0.03449166191122408</v>
+        <v>-0.03109047539732964</v>
       </c>
       <c r="G28">
-        <v>0.007933097131729055</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
+        <v>0.02390172835877608</v>
+      </c>
+      <c r="H28">
+        <v>-0.0001411163139538086</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>-0.01928761161585397</v>
+        <v>0.02237901088446902</v>
       </c>
       <c r="C29">
-        <v>-0.002396555715938021</v>
+        <v>0.001339804719169869</v>
       </c>
       <c r="D29">
-        <v>0.01384478167603196</v>
+        <v>0.008505306964113364</v>
       </c>
       <c r="E29">
-        <v>-0.03759644050736428</v>
+        <v>0.01480307425968361</v>
       </c>
       <c r="F29">
-        <v>-0.04855541332706401</v>
+        <v>0.02135836723222569</v>
       </c>
       <c r="G29">
-        <v>0.04989377396885106</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
+        <v>0.03484634706179617</v>
+      </c>
+      <c r="H29">
+        <v>0.0001853064249092302</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>-0.08239132783089745</v>
+        <v>0.06081453300136548</v>
       </c>
       <c r="C30">
-        <v>-0.06082793302165779</v>
+        <v>0.002213083770493419</v>
       </c>
       <c r="D30">
-        <v>0.01875173896428478</v>
+        <v>0.08505351339319676</v>
       </c>
       <c r="E30">
-        <v>-0.05556782343233086</v>
+        <v>-0.03010237845744513</v>
       </c>
       <c r="F30">
-        <v>-0.1085008868452036</v>
+        <v>0.0596942928625299</v>
       </c>
       <c r="G30">
-        <v>0.05843876171364864</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
+        <v>0.05200190516627159</v>
+      </c>
+      <c r="H30">
+        <v>0.07147907155678647</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>-0.05655338348027947</v>
+        <v>0.0532669156041012</v>
       </c>
       <c r="C31">
-        <v>-0.03100283719388763</v>
+        <v>0.01271608972812541</v>
       </c>
       <c r="D31">
-        <v>-0.005428174925884268</v>
+        <v>0.01758870862113742</v>
       </c>
       <c r="E31">
-        <v>-0.01122957464951819</v>
+        <v>-0.004051816127259879</v>
       </c>
       <c r="F31">
-        <v>-0.0425726080980388</v>
+        <v>0.008249830390714898</v>
       </c>
       <c r="G31">
-        <v>0.06019403869334843</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
+        <v>0.01305468094283443</v>
+      </c>
+      <c r="H31">
+        <v>0.0046931609225236</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>-0.01532689628932296</v>
+        <v>0.01171033545956646</v>
       </c>
       <c r="C32">
-        <v>-0.01079593501802552</v>
+        <v>0.0136887391666855</v>
       </c>
       <c r="D32">
-        <v>-0.001989984474276367</v>
+        <v>0.007973806780536814</v>
       </c>
       <c r="E32">
-        <v>-0.06946109243393468</v>
+        <v>0.03066381047423875</v>
       </c>
       <c r="F32">
-        <v>-0.07849008123844059</v>
+        <v>0.04381139884181293</v>
       </c>
       <c r="G32">
-        <v>0.0493031962750873</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
+        <v>0.02105896961295697</v>
+      </c>
+      <c r="H32">
+        <v>0.05318506537085779</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>-0.04208279512736934</v>
+        <v>0.04220166045486839</v>
       </c>
       <c r="C33">
-        <v>-0.03744191746903709</v>
+        <v>0.003493709754595359</v>
       </c>
       <c r="D33">
-        <v>-0.03276577714272672</v>
+        <v>0.0354649305943174</v>
       </c>
       <c r="E33">
-        <v>-0.03314351723892876</v>
+        <v>-0.02228813900792151</v>
       </c>
       <c r="F33">
-        <v>-0.08366754335920414</v>
+        <v>0.01011606353709845</v>
       </c>
       <c r="G33">
-        <v>0.06365079698330967</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
+        <v>0.04138339950790415</v>
+      </c>
+      <c r="H33">
+        <v>0.04217694323739248</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>-0.02872418251799795</v>
+        <v>0.02889403678240679</v>
       </c>
       <c r="C34">
-        <v>-0.02414713804233892</v>
+        <v>0.01931798671601804</v>
       </c>
       <c r="D34">
-        <v>0.0003696502041770339</v>
+        <v>0.03708932485038665</v>
       </c>
       <c r="E34">
-        <v>-0.03223231679756181</v>
+        <v>0.009538171371432164</v>
       </c>
       <c r="F34">
-        <v>-0.05871103121512164</v>
+        <v>0.02019291526890224</v>
       </c>
       <c r="G34">
-        <v>0.01662952145829035</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
+        <v>0.01552903979982993</v>
+      </c>
+      <c r="H34">
+        <v>0.03678471771154387</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1505,33 +1610,39 @@
       <c r="G35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:7">
+      <c r="H35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>-0.01444171757211526</v>
+        <v>0.02045384831889655</v>
       </c>
       <c r="C36">
-        <v>-0.0005884011502689647</v>
+        <v>-0.004911894054403237</v>
       </c>
       <c r="D36">
-        <v>-0.0008598859204394411</v>
+        <v>0.001815286056356762</v>
       </c>
       <c r="E36">
-        <v>-0.02197757083572056</v>
+        <v>0.007646463536009254</v>
       </c>
       <c r="F36">
-        <v>-0.03747979447204609</v>
+        <v>0.006915732069910112</v>
       </c>
       <c r="G36">
-        <v>0.03874421169792915</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
+        <v>0.017248121303169</v>
+      </c>
+      <c r="H36">
+        <v>0.01296736637437201</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1551,171 +1662,195 @@
       <c r="G37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:7">
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>-0.002706132263753011</v>
+        <v>0.02893355071220403</v>
       </c>
       <c r="C38">
-        <v>0.006059826135921293</v>
+        <v>0.01783314149919001</v>
       </c>
       <c r="D38">
-        <v>-0.01986064414849962</v>
+        <v>0.01021044363700751</v>
       </c>
       <c r="E38">
-        <v>0.02450861673996912</v>
+        <v>-0.0001556777155947317</v>
       </c>
       <c r="F38">
-        <v>-0.03833686071926307</v>
+        <v>0.01585114641386386</v>
       </c>
       <c r="G38">
-        <v>0.0118994849721282</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
+        <v>0.01958908177517976</v>
+      </c>
+      <c r="H38">
+        <v>0.0417841491833374</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>-0.03298136220780801</v>
+        <v>0.02564688161951277</v>
       </c>
       <c r="C39">
-        <v>-0.04806344544697363</v>
+        <v>0.009097461951278257</v>
       </c>
       <c r="D39">
-        <v>-0.0001387968122583606</v>
+        <v>0.08584374598096968</v>
       </c>
       <c r="E39">
-        <v>-0.03624869091744551</v>
+        <v>-0.003408993321224245</v>
       </c>
       <c r="F39">
-        <v>-0.06976982305799825</v>
+        <v>0.02677243886418068</v>
       </c>
       <c r="G39">
-        <v>0.02890931495428556</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
+        <v>0.03732809192838759</v>
+      </c>
+      <c r="H39">
+        <v>0.07354466259333221</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>-0.03176336046979523</v>
+        <v>0.03362033975479392</v>
       </c>
       <c r="C40">
-        <v>-0.06949010260621083</v>
+        <v>0.002737125497753627</v>
       </c>
       <c r="D40">
-        <v>0.01921278960422761</v>
+        <v>0.02720657856622566</v>
       </c>
       <c r="E40">
-        <v>0.00727796836669363</v>
+        <v>-0.02236795774911878</v>
       </c>
       <c r="F40">
-        <v>-0.0787586952190691</v>
+        <v>0.03934509854457826</v>
       </c>
       <c r="G40">
-        <v>0.05269894075772836</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
+        <v>0.01763104108023237</v>
+      </c>
+      <c r="H40">
+        <v>0.06637091013401356</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>-0.001199723120185567</v>
+        <v>0.01023554306928856</v>
       </c>
       <c r="C41">
-        <v>0.001039736885160364</v>
+        <v>-0.002561431025451943</v>
       </c>
       <c r="D41">
-        <v>-0.008769469610134738</v>
+        <v>-0.01614624312578993</v>
       </c>
       <c r="E41">
-        <v>-0.004567007787760543</v>
+        <v>-0.001409401123839316</v>
       </c>
       <c r="F41">
-        <v>-0.0101052987371746</v>
+        <v>-0.002202547551594628</v>
       </c>
       <c r="G41">
-        <v>0.04967606314192653</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
+        <v>0.00403619530450129</v>
+      </c>
+      <c r="H41">
+        <v>-0.0070286002806795</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B42">
-        <v>-0.36989242950076</v>
+        <v>0.1957382181953801</v>
       </c>
       <c r="C42">
-        <v>0.1099516949961927</v>
+        <v>-0.05894067640500771</v>
       </c>
       <c r="D42">
-        <v>-0.8210930931558662</v>
+        <v>0.2496047068980359</v>
       </c>
       <c r="E42">
-        <v>0.1969079060338852</v>
+        <v>-0.2141054100875454</v>
       </c>
       <c r="F42">
-        <v>0.2868433665990948</v>
+        <v>-0.9096407497160662</v>
       </c>
       <c r="G42">
-        <v>0.1311878602831694</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7">
+        <v>-0.06526472533783292</v>
+      </c>
+      <c r="H42">
+        <v>0.00695910537493653</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>0.0009518547836389098</v>
+        <v>0.01327607672654761</v>
       </c>
       <c r="C43">
-        <v>0.002145480226783633</v>
+        <v>-0.002656921083035533</v>
       </c>
       <c r="D43">
-        <v>-0.01282694068406227</v>
+        <v>-0.01610640678258612</v>
       </c>
       <c r="E43">
-        <v>-0.005312373719243081</v>
+        <v>-0.004907091156812302</v>
       </c>
       <c r="F43">
-        <v>-0.02472321297783433</v>
+        <v>-0.004486422918738131</v>
       </c>
       <c r="G43">
-        <v>0.04915609004803867</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
+        <v>0.004079702367481066</v>
+      </c>
+      <c r="H43">
+        <v>0.005950065194739337</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>-0.01399159523951449</v>
+        <v>0.02134895051476013</v>
       </c>
       <c r="C44">
-        <v>-0.001260391866574668</v>
+        <v>0.005563529757240386</v>
       </c>
       <c r="D44">
-        <v>-0.01535896812558044</v>
+        <v>0.03037021062574683</v>
       </c>
       <c r="E44">
-        <v>-8.983169441659962e-05</v>
+        <v>0.006218379754859083</v>
       </c>
       <c r="F44">
-        <v>-0.1098862645887424</v>
+        <v>0.00775380812928929</v>
       </c>
       <c r="G44">
-        <v>0.09243362857133298</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
+        <v>0.03963518481555714</v>
+      </c>
+      <c r="H44">
+        <v>0.06532910226675041</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1735,79 +1870,91 @@
       <c r="G45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:7">
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>-0.01916280195900624</v>
+        <v>0.01762024534439067</v>
       </c>
       <c r="C46">
-        <v>-0.02038506512183151</v>
+        <v>-0.004127340498680038</v>
       </c>
       <c r="D46">
-        <v>-0.01088986817577036</v>
+        <v>0.01022319417474229</v>
       </c>
       <c r="E46">
-        <v>-0.03742418204410353</v>
+        <v>0.0005139167938949471</v>
       </c>
       <c r="F46">
-        <v>-0.06654526613699237</v>
+        <v>0.01719254680763378</v>
       </c>
       <c r="G46">
-        <v>0.06244965646745396</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7">
+        <v>0.04146299491051195</v>
+      </c>
+      <c r="H46">
+        <v>0.004468815139389081</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>-0.0932768725539919</v>
+        <v>0.07737320205556845</v>
       </c>
       <c r="C47">
-        <v>-0.03706403074112515</v>
+        <v>0.02988225759201375</v>
       </c>
       <c r="D47">
-        <v>0.01333613253437613</v>
+        <v>0.03977956330481504</v>
       </c>
       <c r="E47">
-        <v>-0.02931835541276731</v>
+        <v>0.0001927664764144193</v>
       </c>
       <c r="F47">
-        <v>-0.02360853564606989</v>
+        <v>0.01548490467810641</v>
       </c>
       <c r="G47">
-        <v>0.08332318123153096</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7">
+        <v>-0.01470914260689253</v>
+      </c>
+      <c r="H47">
+        <v>-0.02276709076461856</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>-0.01564132933177291</v>
+        <v>0.02321573560194878</v>
       </c>
       <c r="C48">
-        <v>-0.008012254984604266</v>
+        <v>0.006372887198120892</v>
       </c>
       <c r="D48">
-        <v>-0.009926802409001512</v>
+        <v>0.007516146198893678</v>
       </c>
       <c r="E48">
-        <v>-0.02263482460719759</v>
+        <v>0.001004915823883025</v>
       </c>
       <c r="F48">
-        <v>-0.04572412772964816</v>
+        <v>0.01121927105151803</v>
       </c>
       <c r="G48">
-        <v>0.02893807516627013</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7">
+        <v>0.02304178749672114</v>
+      </c>
+      <c r="H48">
+        <v>0.01789763527795931</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1827,56 +1974,65 @@
       <c r="G49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:7">
+      <c r="H49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>-0.08383502401130911</v>
+        <v>0.07374640803407144</v>
       </c>
       <c r="C50">
-        <v>-0.03530047212922246</v>
+        <v>0.02657413433760208</v>
       </c>
       <c r="D50">
-        <v>-0.01207958301480727</v>
+        <v>0.03930863906528051</v>
       </c>
       <c r="E50">
-        <v>-0.04085698021802603</v>
+        <v>0.01404960126472324</v>
       </c>
       <c r="F50">
-        <v>-0.0518603914565828</v>
+        <v>0.01122257312534862</v>
       </c>
       <c r="G50">
-        <v>0.03831618350623777</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7">
+        <v>0.005051687741465863</v>
+      </c>
+      <c r="H50">
+        <v>-0.003237397653983556</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>-0.0169124045670105</v>
+        <v>0.02095972585224739</v>
       </c>
       <c r="C51">
-        <v>0.002032090361642177</v>
+        <v>-0.000882474796152991</v>
       </c>
       <c r="D51">
-        <v>-0.004849708862250899</v>
+        <v>0.0005902476092353959</v>
       </c>
       <c r="E51">
-        <v>0.01425595614956472</v>
+        <v>0.005575045944703161</v>
       </c>
       <c r="F51">
-        <v>-0.09548672748314876</v>
+        <v>0.005079954832903302</v>
       </c>
       <c r="G51">
-        <v>0.05405203107779701</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7">
+        <v>0.04731291031618154</v>
+      </c>
+      <c r="H51">
+        <v>0.05298618511086127</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1896,217 +2052,247 @@
       <c r="G52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:7">
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>-0.0978689732798798</v>
+        <v>0.0961376181325611</v>
       </c>
       <c r="C53">
-        <v>-0.04641885250353859</v>
+        <v>0.03835302427294849</v>
       </c>
       <c r="D53">
-        <v>0.01030839715042107</v>
+        <v>0.07302489428496069</v>
       </c>
       <c r="E53">
-        <v>-0.05097434003259196</v>
+        <v>0.003031441117760584</v>
       </c>
       <c r="F53">
-        <v>0.03475099441733905</v>
+        <v>0.03007088351683099</v>
       </c>
       <c r="G53">
-        <v>0.009858469405272808</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7">
+        <v>-0.05463270308029342</v>
+      </c>
+      <c r="H53">
+        <v>-0.04056521224245425</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>-0.02154305784564875</v>
+        <v>0.02614175274370439</v>
       </c>
       <c r="C54">
-        <v>-0.001209266271052183</v>
+        <v>0.009426162049688729</v>
       </c>
       <c r="D54">
-        <v>0.02153501967663224</v>
+        <v>-0.01174966449837133</v>
       </c>
       <c r="E54">
-        <v>-0.03440151675500164</v>
+        <v>0.008416998904231783</v>
       </c>
       <c r="F54">
-        <v>-0.0392305526804187</v>
+        <v>0.01500736779058699</v>
       </c>
       <c r="G54">
-        <v>0.06758206876401333</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7">
+        <v>0.03504406599563589</v>
+      </c>
+      <c r="H54">
+        <v>-0.006312645597190645</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>-0.09897816603762255</v>
+        <v>0.08081001943910295</v>
       </c>
       <c r="C55">
-        <v>-0.02678263930879539</v>
+        <v>0.03407018569189223</v>
       </c>
       <c r="D55">
-        <v>0.01493070160262042</v>
+        <v>0.06900464193665316</v>
       </c>
       <c r="E55">
-        <v>-0.06518496805143603</v>
+        <v>0.01094893897716791</v>
       </c>
       <c r="F55">
-        <v>0.02809991165289144</v>
+        <v>0.02333011421062301</v>
       </c>
       <c r="G55">
-        <v>0.06422755226982825</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7">
+        <v>-0.02870975679550101</v>
+      </c>
+      <c r="H55">
+        <v>-0.05211881171941519</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>-0.1390601939752069</v>
+        <v>0.1308821010167083</v>
       </c>
       <c r="C56">
-        <v>-0.06413279469420707</v>
+        <v>0.05697265295760891</v>
       </c>
       <c r="D56">
-        <v>0.05802861650485514</v>
+        <v>0.08684344919481933</v>
       </c>
       <c r="E56">
-        <v>-0.06536152814214566</v>
+        <v>0.001528862706552278</v>
       </c>
       <c r="F56">
-        <v>0.07176673431278587</v>
+        <v>0.05042332877716605</v>
       </c>
       <c r="G56">
-        <v>-0.03472368037125691</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7">
+        <v>-0.09299669765414527</v>
+      </c>
+      <c r="H56">
+        <v>-0.06337625169161605</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B57">
-        <v>-0.04518303099985831</v>
+        <v>0.03688581473315188</v>
       </c>
       <c r="C57">
-        <v>-0.01701065639735271</v>
+        <v>-0.0104788950750955</v>
       </c>
       <c r="D57">
-        <v>-0.01588884891839195</v>
+        <v>0.03525516903965122</v>
       </c>
       <c r="E57">
-        <v>0.01473790416919912</v>
+        <v>-0.007766222436267921</v>
       </c>
       <c r="F57">
-        <v>-0.06189060754215549</v>
+        <v>0.01683443248269241</v>
       </c>
       <c r="G57">
-        <v>0.06153619615649765</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7">
+        <v>0.06770537018961631</v>
+      </c>
+      <c r="H57">
+        <v>0.03962468430565104</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>-0.2145056807621004</v>
+        <v>0.1663785939736261</v>
       </c>
       <c r="C58">
-        <v>-0.1305350637278111</v>
+        <v>0.05559255432509053</v>
       </c>
       <c r="D58">
-        <v>-0.05592686747658974</v>
+        <v>0.1517009767746524</v>
       </c>
       <c r="E58">
-        <v>-0.1024090885451509</v>
+        <v>-0.1740947138396068</v>
       </c>
       <c r="F58">
-        <v>-0.3860796421881159</v>
+        <v>0.04272754122740675</v>
       </c>
       <c r="G58">
-        <v>0.1089814525388218</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7">
+        <v>0.810145103381417</v>
+      </c>
+      <c r="H58">
+        <v>-0.4080279226117057</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>-0.05753266914822907</v>
+        <v>0.151618152485616</v>
       </c>
       <c r="C59">
-        <v>0.04812590551468521</v>
+        <v>0.009684176365542186</v>
       </c>
       <c r="D59">
-        <v>0.07954327022656248</v>
+        <v>-0.2309484053074653</v>
       </c>
       <c r="E59">
-        <v>0.1642790072488209</v>
+        <v>-0.01555333042972889</v>
       </c>
       <c r="F59">
-        <v>-0.05913576696771262</v>
+        <v>-0.003883452921215242</v>
       </c>
       <c r="G59">
-        <v>-0.01674593270822121</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7">
+        <v>0.0250112148886284</v>
+      </c>
+      <c r="H59">
+        <v>0.0337271135799736</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>-0.1551922266568185</v>
+        <v>0.1840521702295126</v>
       </c>
       <c r="C60">
-        <v>-0.09536629901192684</v>
+        <v>0.03259498567628872</v>
       </c>
       <c r="D60">
-        <v>-0.03335405110465377</v>
+        <v>0.02397683369517225</v>
       </c>
       <c r="E60">
-        <v>0.0934338758065751</v>
+        <v>-0.04821633059088329</v>
       </c>
       <c r="F60">
-        <v>-0.1861116577796027</v>
+        <v>0.0591683776572323</v>
       </c>
       <c r="G60">
-        <v>-0.3089154743855418</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7">
+        <v>0.03371474253304037</v>
+      </c>
+      <c r="H60">
+        <v>0.3724536825502144</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>-0.01933668799793319</v>
+        <v>0.02779772473034528</v>
       </c>
       <c r="C61">
-        <v>-0.02218249147579665</v>
+        <v>0.01156985634680123</v>
       </c>
       <c r="D61">
-        <v>-0.006992065236947312</v>
+        <v>0.05181502779427843</v>
       </c>
       <c r="E61">
-        <v>-0.01921913706718964</v>
+        <v>0.004087016254717322</v>
       </c>
       <c r="F61">
-        <v>-0.0351091238979233</v>
+        <v>0.02613254239155421</v>
       </c>
       <c r="G61">
-        <v>0.01970493684706496</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7">
+        <v>0.01896282978285102</v>
+      </c>
+      <c r="H61">
+        <v>0.05596722365830726</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -2126,171 +2312,195 @@
       <c r="G62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:7">
+      <c r="H62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>-0.009982748282190972</v>
+        <v>0.01433007455695522</v>
       </c>
       <c r="C63">
-        <v>-0.01547585618910561</v>
+        <v>-0.001156470886659871</v>
       </c>
       <c r="D63">
-        <v>-0.01689227592651125</v>
+        <v>0.01951414374322421</v>
       </c>
       <c r="E63">
-        <v>-0.03028941836973185</v>
+        <v>0.005607424829161756</v>
       </c>
       <c r="F63">
-        <v>-0.0164134561222833</v>
+        <v>0.01349655744446653</v>
       </c>
       <c r="G63">
-        <v>0.07008577663146252</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7">
+        <v>0.01536892975360523</v>
+      </c>
+      <c r="H63">
+        <v>0.009661771647872089</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>-0.0356696063164328</v>
+        <v>0.04314530416553559</v>
       </c>
       <c r="C64">
-        <v>0.001130670328577318</v>
+        <v>0.01129199269703817</v>
       </c>
       <c r="D64">
-        <v>0.01202757434447959</v>
+        <v>0.03416714000857111</v>
       </c>
       <c r="E64">
-        <v>-0.0515096938751911</v>
+        <v>0.01141078410840028</v>
       </c>
       <c r="F64">
-        <v>-0.03457537938867507</v>
+        <v>0.006685482271082302</v>
       </c>
       <c r="G64">
-        <v>0.05898982981178419</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7">
+        <v>0.0004904988265610514</v>
+      </c>
+      <c r="H64">
+        <v>0.03863254143211186</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>-0.02808900714674576</v>
+        <v>0.03791844593243332</v>
       </c>
       <c r="C65">
-        <v>-0.007734270404925137</v>
+        <v>0.001506363463664466</v>
       </c>
       <c r="D65">
-        <v>-0.0002095152637294603</v>
+        <v>0.06517619588659662</v>
       </c>
       <c r="E65">
-        <v>-0.02598356504070019</v>
+        <v>0.008378782072767014</v>
       </c>
       <c r="F65">
-        <v>-0.02166609091627997</v>
+        <v>0.03612840644447846</v>
       </c>
       <c r="G65">
-        <v>-0.01228219184770298</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7">
+        <v>-0.002073400050621415</v>
+      </c>
+      <c r="H65">
+        <v>0.06978635409231952</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>-0.03057582636190283</v>
+        <v>0.03435563833181639</v>
       </c>
       <c r="C66">
-        <v>-0.05402695443155014</v>
+        <v>0.01586511443578244</v>
       </c>
       <c r="D66">
-        <v>-0.0004369600647729303</v>
+        <v>0.1047857204379868</v>
       </c>
       <c r="E66">
-        <v>-0.03957447998783065</v>
+        <v>-0.005144683334934145</v>
       </c>
       <c r="F66">
-        <v>-0.05573775616485165</v>
+        <v>0.04602575369019019</v>
       </c>
       <c r="G66">
-        <v>0.01794063974389088</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7">
+        <v>0.02970744233568151</v>
+      </c>
+      <c r="H66">
+        <v>0.07830688333898493</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>-0.01238918393627381</v>
+        <v>0.04857336752164016</v>
       </c>
       <c r="C67">
-        <v>-0.002755967054575288</v>
+        <v>0.02019233618595403</v>
       </c>
       <c r="D67">
-        <v>-0.01460586775906315</v>
+        <v>0.01001825213944332</v>
       </c>
       <c r="E67">
-        <v>0.03212200591026658</v>
+        <v>-0.004216777635549496</v>
       </c>
       <c r="F67">
-        <v>-0.02082247093223777</v>
+        <v>0.02409640498186328</v>
       </c>
       <c r="G67">
-        <v>0.0001528269732272161</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7">
+        <v>0.004991274941253356</v>
+      </c>
+      <c r="H67">
+        <v>0.04185536200700524</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>-0.0741663600326872</v>
+        <v>0.1421952515805667</v>
       </c>
       <c r="C68">
-        <v>0.07327140542062978</v>
+        <v>-0.01448461290515344</v>
       </c>
       <c r="D68">
-        <v>0.08982285651210342</v>
+        <v>-0.2422309598096291</v>
       </c>
       <c r="E68">
-        <v>0.1666022555159554</v>
+        <v>-0.009836822245879402</v>
       </c>
       <c r="F68">
-        <v>-0.05418146273712464</v>
+        <v>-0.03948592396457724</v>
       </c>
       <c r="G68">
-        <v>-0.0544900071104628</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7">
+        <v>0.03784628664544751</v>
+      </c>
+      <c r="H68">
+        <v>-0.03592234322590281</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>-0.067028221249619</v>
+        <v>0.0628401193882524</v>
       </c>
       <c r="C69">
-        <v>-0.04326588017214052</v>
+        <v>0.02973999215833042</v>
       </c>
       <c r="D69">
-        <v>0.01697743419308102</v>
+        <v>0.03904001544717126</v>
       </c>
       <c r="E69">
-        <v>-0.01477162798146345</v>
+        <v>-0.0006104467143520018</v>
       </c>
       <c r="F69">
-        <v>-0.01601192727436201</v>
+        <v>0.02625005977628909</v>
       </c>
       <c r="G69">
-        <v>0.07838288713718518</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7">
+        <v>-0.02045279989230474</v>
+      </c>
+      <c r="H69">
+        <v>0.004397082619664881</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -2310,194 +2520,221 @@
       <c r="G70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:7">
+      <c r="H70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>-0.07830178366275282</v>
+        <v>0.1372749413510768</v>
       </c>
       <c r="C71">
-        <v>0.07474699547117662</v>
+        <v>-0.002331330004208883</v>
       </c>
       <c r="D71">
-        <v>0.06611635597793754</v>
+        <v>-0.2098359080514262</v>
       </c>
       <c r="E71">
-        <v>0.2243096272077985</v>
+        <v>-0.01661558990916925</v>
       </c>
       <c r="F71">
-        <v>-0.04664806394352554</v>
+        <v>-0.04406692980566793</v>
       </c>
       <c r="G71">
-        <v>0.01064823008985496</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7">
+        <v>0.03673541900580781</v>
+      </c>
+      <c r="H71">
+        <v>-0.01683168193528669</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>-0.1116468928120495</v>
+        <v>0.08379012030129752</v>
       </c>
       <c r="C72">
-        <v>-0.07180546641065073</v>
+        <v>0.04094728326639371</v>
       </c>
       <c r="D72">
-        <v>0.05569345532397139</v>
+        <v>0.0728722562882443</v>
       </c>
       <c r="E72">
-        <v>-0.02271347389768439</v>
+        <v>-0.01428211548833789</v>
       </c>
       <c r="F72">
-        <v>-0.1219362475683046</v>
+        <v>0.0764911375942712</v>
       </c>
       <c r="G72">
-        <v>-0.08099431680368327</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7">
+        <v>0.02813255991314482</v>
+      </c>
+      <c r="H72">
+        <v>0.1360351940492321</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>-0.2297154072251726</v>
+        <v>0.2527396753488274</v>
       </c>
       <c r="C73">
-        <v>-0.1281848167397941</v>
+        <v>0.0471326863609875</v>
       </c>
       <c r="D73">
-        <v>-0.04267375307306154</v>
+        <v>0.08370148019437793</v>
       </c>
       <c r="E73">
-        <v>0.1823669112066415</v>
+        <v>-0.08666234826954392</v>
       </c>
       <c r="F73">
-        <v>-0.2436547280585695</v>
+        <v>0.06954164588390216</v>
       </c>
       <c r="G73">
-        <v>-0.4316323055054633</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7">
+        <v>0.04490432960683399</v>
+      </c>
+      <c r="H73">
+        <v>0.486129822960319</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>-0.1344723949221104</v>
+        <v>0.1264018794198887</v>
       </c>
       <c r="C74">
-        <v>-0.03618377489346834</v>
+        <v>0.0558066378041074</v>
       </c>
       <c r="D74">
-        <v>0.02382289470342202</v>
+        <v>0.09590692164403104</v>
       </c>
       <c r="E74">
-        <v>-0.03180823912373002</v>
+        <v>0.003625066768243364</v>
       </c>
       <c r="F74">
-        <v>0.06612597849775195</v>
+        <v>0.03616585151602614</v>
       </c>
       <c r="G74">
-        <v>-0.01745655771458075</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7">
+        <v>-0.07653901339862319</v>
+      </c>
+      <c r="H74">
+        <v>-0.03358735221820905</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>-0.2217543870464861</v>
+        <v>0.2358423386099721</v>
       </c>
       <c r="C75">
-        <v>-0.1051015704092205</v>
+        <v>0.1034625776721222</v>
       </c>
       <c r="D75">
-        <v>0.1010450706967187</v>
+        <v>0.1442242419446334</v>
       </c>
       <c r="E75">
-        <v>-0.09622397838475981</v>
+        <v>-0.01238403170510842</v>
       </c>
       <c r="F75">
-        <v>0.100583756663843</v>
+        <v>0.09632944771257601</v>
       </c>
       <c r="G75">
-        <v>-0.004605018708211623</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7">
+        <v>-0.1590573190595467</v>
+      </c>
+      <c r="H75">
+        <v>-0.142345059007154</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>-0.2687198932335209</v>
+        <v>0.2085888026759171</v>
       </c>
       <c r="C76">
-        <v>-0.09884380104989098</v>
+        <v>0.09649618520073348</v>
       </c>
       <c r="D76">
-        <v>0.1581994729909945</v>
+        <v>0.1361877236829194</v>
       </c>
       <c r="E76">
-        <v>-0.1205175605844528</v>
+        <v>0.03361615275853883</v>
       </c>
       <c r="F76">
-        <v>0.16388524614339</v>
+        <v>0.09171674926172554</v>
       </c>
       <c r="G76">
-        <v>-0.02086768748280119</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7">
+        <v>-0.1560851082631097</v>
+      </c>
+      <c r="H76">
+        <v>-0.1421823803456896</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>-0.1230921068184748</v>
+        <v>0.07752524567189067</v>
       </c>
       <c r="C77">
-        <v>-0.05203388362275779</v>
+        <v>0.01478358935525506</v>
       </c>
       <c r="D77">
-        <v>-0.07782113579611698</v>
+        <v>0.06768423472663999</v>
       </c>
       <c r="E77">
-        <v>-0.06676938757987579</v>
+        <v>-0.009228917947130516</v>
       </c>
       <c r="F77">
-        <v>-0.1662667794358975</v>
+        <v>-0.001780759288893735</v>
       </c>
       <c r="G77">
-        <v>0.2054391291342528</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7">
+        <v>0.0877552098429334</v>
+      </c>
+      <c r="H77">
+        <v>0.007943684781455747</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>-0.07112036073423463</v>
+        <v>0.0475826641697386</v>
       </c>
       <c r="C78">
-        <v>-0.0449075804453188</v>
+        <v>0.01541077794904172</v>
       </c>
       <c r="D78">
-        <v>-0.02252071894532567</v>
+        <v>0.05838514786496211</v>
       </c>
       <c r="E78">
-        <v>-0.08080051153222065</v>
+        <v>0.003645153329987601</v>
       </c>
       <c r="F78">
-        <v>-0.1077447254909227</v>
+        <v>0.0319297897209635</v>
       </c>
       <c r="G78">
-        <v>0.03608928202917534</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7">
+        <v>0.05947594618615515</v>
+      </c>
+      <c r="H78">
+        <v>0.0728835343346512</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2517,56 +2754,65 @@
       <c r="G79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:7">
+      <c r="H79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>-0.2634035316118554</v>
+        <v>0.1451228092131647</v>
       </c>
       <c r="C80">
-        <v>0.8466247512666453</v>
+        <v>0.03707831738139521</v>
       </c>
       <c r="D80">
-        <v>0.07339798310206452</v>
+        <v>0.06016674319734491</v>
       </c>
       <c r="E80">
-        <v>-0.3926727875707041</v>
+        <v>0.943837725247656</v>
       </c>
       <c r="F80">
-        <v>-0.1031412914883863</v>
+        <v>-0.1959210428411748</v>
       </c>
       <c r="G80">
-        <v>-0.1203810869256433</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7">
+        <v>0.1469164312319758</v>
+      </c>
+      <c r="H80">
+        <v>0.009126082599410768</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>-0.168914374427799</v>
+        <v>0.1565968569890736</v>
       </c>
       <c r="C81">
-        <v>-0.0710139063066826</v>
+        <v>0.06733355729569157</v>
       </c>
       <c r="D81">
-        <v>0.1027961709871044</v>
+        <v>0.089257994842307</v>
       </c>
       <c r="E81">
-        <v>-0.06875856069542351</v>
+        <v>0.008451549214924517</v>
       </c>
       <c r="F81">
-        <v>0.1242774438954883</v>
+        <v>0.06240486623611855</v>
       </c>
       <c r="G81">
-        <v>-0.03699354300103345</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7">
+        <v>-0.1060630286940574</v>
+      </c>
+      <c r="H81">
+        <v>-0.09210410792367912</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -2586,33 +2832,39 @@
       <c r="G82">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:7">
+      <c r="H82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>-0.03673815559073317</v>
+        <v>0.0362818531897135</v>
       </c>
       <c r="C83">
-        <v>-0.03370054304719726</v>
+        <v>0.007540830585944049</v>
       </c>
       <c r="D83">
-        <v>-0.02157112426350013</v>
+        <v>0.02159495843455375</v>
       </c>
       <c r="E83">
-        <v>-0.006853859519529408</v>
+        <v>-0.007987184589461795</v>
       </c>
       <c r="F83">
-        <v>-0.05504284821041545</v>
+        <v>0.01654979547416686</v>
       </c>
       <c r="G83">
-        <v>0.04372924021210185</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7">
+        <v>0.04532350445544477</v>
+      </c>
+      <c r="H83">
+        <v>0.03577903404444002</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2632,263 +2884,299 @@
       <c r="G84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:7">
+      <c r="H84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>-0.2453049800277363</v>
+        <v>0.2257612628665356</v>
       </c>
       <c r="C85">
-        <v>-0.1012438038092137</v>
+        <v>0.08818715219011379</v>
       </c>
       <c r="D85">
-        <v>0.1104153748796819</v>
+        <v>0.1483457018443775</v>
       </c>
       <c r="E85">
-        <v>-0.09562163605610476</v>
+        <v>-0.005807230091109664</v>
       </c>
       <c r="F85">
-        <v>0.1059992628394338</v>
+        <v>0.08004302559780418</v>
       </c>
       <c r="G85">
-        <v>0.02185033946529622</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7">
+        <v>-0.1700363520668129</v>
+      </c>
+      <c r="H85">
+        <v>-0.1034145659781789</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>-0.007578144110111948</v>
+        <v>0.0276466828502363</v>
       </c>
       <c r="C86">
-        <v>-0.003804276007631383</v>
+        <v>0.003836021426974081</v>
       </c>
       <c r="D86">
-        <v>-0.02105354408893948</v>
+        <v>0.02974328806532534</v>
       </c>
       <c r="E86">
-        <v>-0.04538981972707411</v>
+        <v>-0.004114346054723772</v>
       </c>
       <c r="F86">
-        <v>-0.06958800066026398</v>
+        <v>0.004100297708022599</v>
       </c>
       <c r="G86">
-        <v>0.02860433436828919</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7">
+        <v>0.0764784233866392</v>
+      </c>
+      <c r="H86">
+        <v>0.09329463670994376</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>-0.04091416152328676</v>
+        <v>0.03049015657750113</v>
       </c>
       <c r="C87">
-        <v>0.00321266186002478</v>
+        <v>0.005076089893395099</v>
       </c>
       <c r="D87">
-        <v>-0.01547308378156954</v>
+        <v>0.04336445133697991</v>
       </c>
       <c r="E87">
-        <v>-0.01674466227369648</v>
+        <v>0.008220010724676922</v>
       </c>
       <c r="F87">
-        <v>-0.1192350154793329</v>
+        <v>0.01703202900456469</v>
       </c>
       <c r="G87">
-        <v>0.05055446686446314</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7">
+        <v>0.08068399696412512</v>
+      </c>
+      <c r="H87">
+        <v>0.07767845701617412</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>-0.009636972058494009</v>
+        <v>0.03867184355858447</v>
       </c>
       <c r="C88">
-        <v>0.01293714102944335</v>
+        <v>-0.0106958497335987</v>
       </c>
       <c r="D88">
-        <v>0.01077411427443082</v>
+        <v>0.01479967670782445</v>
       </c>
       <c r="E88">
-        <v>-0.01320329566825783</v>
+        <v>0.01030893469848</v>
       </c>
       <c r="F88">
-        <v>0.001610526598447373</v>
+        <v>0.01431069350420651</v>
       </c>
       <c r="G88">
-        <v>0.05035917907315968</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7">
+        <v>0.004876457839842004</v>
+      </c>
+      <c r="H88">
+        <v>0.02140521116484315</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>-0.1041753079220829</v>
+        <v>0.2340258816416863</v>
       </c>
       <c r="C89">
-        <v>0.1090749249186255</v>
+        <v>-0.006753772537224426</v>
       </c>
       <c r="D89">
-        <v>0.1198915727451201</v>
+        <v>-0.367012373213963</v>
       </c>
       <c r="E89">
-        <v>0.2783319228330227</v>
+        <v>-0.0244071979937962</v>
       </c>
       <c r="F89">
-        <v>-0.07496419902905427</v>
+        <v>-0.02794408576312589</v>
       </c>
       <c r="G89">
-        <v>0.0281362072055015</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7">
+        <v>-0.0034773969444965</v>
+      </c>
+      <c r="H89">
+        <v>0.01262438177762773</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>-0.09499611660004231</v>
+        <v>0.187714537949197</v>
       </c>
       <c r="C90">
-        <v>0.1462079289414923</v>
+        <v>-0.007760363698734794</v>
       </c>
       <c r="D90">
-        <v>0.1314896565088064</v>
+        <v>-0.3263647182276228</v>
       </c>
       <c r="E90">
-        <v>0.2934975598012</v>
+        <v>-0.01657516885841772</v>
       </c>
       <c r="F90">
-        <v>-0.03163783532947082</v>
+        <v>-0.05739886415126831</v>
       </c>
       <c r="G90">
-        <v>0.02718438634608846</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7">
+        <v>-0.007095096939726464</v>
+      </c>
+      <c r="H90">
+        <v>-0.04018787985223679</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>-0.2968202269521826</v>
+        <v>0.2380519710409706</v>
       </c>
       <c r="C91">
-        <v>-0.1294426219918372</v>
+        <v>0.1007844495309323</v>
       </c>
       <c r="D91">
-        <v>0.1123796477295536</v>
+        <v>0.1263479196836589</v>
       </c>
       <c r="E91">
-        <v>-0.09544736255394695</v>
+        <v>-0.01276103090896774</v>
       </c>
       <c r="F91">
-        <v>0.2388019915903836</v>
+        <v>0.07839504054690369</v>
       </c>
       <c r="G91">
-        <v>-0.04022674558290702</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7">
+        <v>-0.1860299063722693</v>
+      </c>
+      <c r="H91">
+        <v>-0.183494404564526</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>-0.1731896563469736</v>
+        <v>0.2405258559551472</v>
       </c>
       <c r="C92">
-        <v>0.09188944112386956</v>
+        <v>0.0600665311896857</v>
       </c>
       <c r="D92">
-        <v>0.2885929899924629</v>
+        <v>-0.2645956710296168</v>
       </c>
       <c r="E92">
-        <v>0.3249637891500322</v>
+        <v>-0.004399267316912108</v>
       </c>
       <c r="F92">
-        <v>0.1308108764496303</v>
+        <v>0.004939793099970127</v>
       </c>
       <c r="G92">
-        <v>0.525824352404183</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7">
+        <v>-0.001527017298051932</v>
+      </c>
+      <c r="H92">
+        <v>-0.137016517926143</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>-0.09524145286865539</v>
+        <v>0.2113349350076979</v>
       </c>
       <c r="C93">
-        <v>0.1391597754773796</v>
+        <v>0.001758324703236642</v>
       </c>
       <c r="D93">
-        <v>0.1522730145210727</v>
+        <v>-0.3429642973070393</v>
       </c>
       <c r="E93">
-        <v>0.4127753498454052</v>
+        <v>-0.03751605600850035</v>
       </c>
       <c r="F93">
-        <v>0.008450320007742731</v>
+        <v>-0.05968661573772019</v>
       </c>
       <c r="G93">
-        <v>-0.0542602269292598</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7">
+        <v>0.001160828968967037</v>
+      </c>
+      <c r="H93">
+        <v>0.01445356809085963</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>-0.2949711257116659</v>
+        <v>0.2620100730382569</v>
       </c>
       <c r="C94">
-        <v>-0.1637909124526048</v>
+        <v>0.0900299849966515</v>
       </c>
       <c r="D94">
-        <v>0.2065316108425752</v>
+        <v>0.1213899978720063</v>
       </c>
       <c r="E94">
-        <v>-0.1019312666930562</v>
+        <v>-0.02642509999856843</v>
       </c>
       <c r="F94">
-        <v>0.1914980264778501</v>
+        <v>0.1260020513512676</v>
       </c>
       <c r="G94">
-        <v>-0.04949734989905869</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7">
+        <v>-0.1802003939915152</v>
+      </c>
+      <c r="H94">
+        <v>-0.2213630005974806</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>-0.05828644810890125</v>
+        <v>0.062349169004722</v>
       </c>
       <c r="C95">
-        <v>-0.06598163992876294</v>
+        <v>0.03601064019606374</v>
       </c>
       <c r="D95">
-        <v>-0.04186874238240281</v>
+        <v>0.08470813882034491</v>
       </c>
       <c r="E95">
-        <v>-0.07963912565391026</v>
+        <v>-0.07887739921449868</v>
       </c>
       <c r="F95">
-        <v>-0.01518233648218764</v>
+        <v>0.00873395100419843</v>
       </c>
       <c r="G95">
-        <v>0.1782509697446832</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7">
+        <v>0.05069464047141121</v>
+      </c>
+      <c r="H95">
+        <v>0.04522612453920166</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2908,10 +3196,13 @@
       <c r="G96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:7">
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2931,33 +3222,39 @@
       <c r="G97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:7">
+      <c r="H97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>-0.1739995332180992</v>
+        <v>0.1891775472334264</v>
       </c>
       <c r="C98">
-        <v>-0.05472371242120058</v>
+        <v>0.06429771733093041</v>
       </c>
       <c r="D98">
-        <v>-0.04960012039982509</v>
+        <v>0.03668256347122419</v>
       </c>
       <c r="E98">
-        <v>0.125328929935951</v>
+        <v>-0.05122951216975222</v>
       </c>
       <c r="F98">
-        <v>-0.1417136484639491</v>
+        <v>0.02597169652484964</v>
       </c>
       <c r="G98">
-        <v>-0.3431669783791854</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7">
+        <v>0.07474121303151825</v>
+      </c>
+      <c r="H98">
+        <v>0.3453150856873475</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2977,10 +3274,13 @@
       <c r="G99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:7">
+      <c r="H99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -3000,97 +3300,112 @@
       <c r="G100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:7">
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>-0.005377372694841483</v>
+        <v>0.01620087613798839</v>
       </c>
       <c r="C101">
-        <v>-0.01561138657450276</v>
+        <v>4.866038192922539e-05</v>
       </c>
       <c r="D101">
-        <v>0.002423581271129472</v>
+        <v>0.0110929448767274</v>
       </c>
       <c r="E101">
-        <v>-0.0767433456352309</v>
+        <v>0.006845453729672636</v>
       </c>
       <c r="F101">
-        <v>-0.1628703678834477</v>
+        <v>0.0299914249667189</v>
       </c>
       <c r="G101">
-        <v>0.1481062839574566</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7">
+        <v>0.1002434848870011</v>
+      </c>
+      <c r="H101">
+        <v>-0.02938503378502368</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B102">
-        <v>-0.1115518965405852</v>
+        <v>0.1094643819510498</v>
       </c>
       <c r="C102">
-        <v>-0.05144009895416014</v>
+        <v>0.03533861689019142</v>
       </c>
       <c r="D102">
-        <v>0.04067907919090225</v>
+        <v>0.07237783717478347</v>
       </c>
       <c r="E102">
-        <v>-0.07304818873658857</v>
+        <v>-0.0004370589080198871</v>
       </c>
       <c r="F102">
-        <v>0.0974167727690449</v>
+        <v>0.0426295158573602</v>
       </c>
       <c r="G102">
-        <v>-0.003414947822593743</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7">
+        <v>-0.09417252677654835</v>
+      </c>
+      <c r="H102">
+        <v>-0.07170036796834386</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B103">
-        <v>-0.03493410228959443</v>
+        <v>0.01763131549525476</v>
       </c>
       <c r="C103">
-        <v>-0.0004575242153637685</v>
+        <v>0.0068884073564941</v>
       </c>
       <c r="D103">
-        <v>0.02068202504523613</v>
+        <v>0.01440238406070309</v>
       </c>
       <c r="E103">
-        <v>-0.03816519274341382</v>
+        <v>0.009627357984406545</v>
       </c>
       <c r="F103">
-        <v>-0.003041301157861016</v>
+        <v>0.009406028758784759</v>
       </c>
       <c r="G103">
-        <v>0.01032393540074946</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7">
+        <v>-0.001303244114837333</v>
+      </c>
+      <c r="H103">
+        <v>-0.01509867891251312</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B104">
-        <v>0</v>
+        <v>0.2229218555816821</v>
       </c>
       <c r="C104">
-        <v>0</v>
+        <v>-0.9537003633389761</v>
       </c>
       <c r="D104">
-        <v>0</v>
+        <v>0.1043578922758885</v>
       </c>
       <c r="E104">
-        <v>0</v>
+        <v>0.02689424338475527</v>
       </c>
       <c r="F104">
-        <v>0</v>
+        <v>0.1299900431069226</v>
       </c>
       <c r="G104">
-        <v>0</v>
+        <v>-0.03489737003253464</v>
+      </c>
+      <c r="H104">
+        <v>-0.05120085736446871</v>
       </c>
     </row>
   </sheetData>
